--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B497A-96E3-4FD1-98B3-960FA419C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB1D83-FE88-4A79-90AE-2AFE2B83C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Notice Open  - CompanyAdmin" sheetId="6" r:id="rId6"/>
     <sheet name="Case Open - CompanyAdmin" sheetId="7" r:id="rId7"/>
     <sheet name="Task Open - CompanyAdmin" sheetId="8" r:id="rId8"/>
+    <sheet name="CFO" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="206">
   <si>
     <t>URL</t>
   </si>
@@ -549,55 +550,115 @@
     <t>Users</t>
   </si>
   <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automate New Test </t>
-  </si>
-  <si>
-    <t>Electronic bank transfers.</t>
-  </si>
-  <si>
-    <t>Final Argument</t>
-  </si>
-  <si>
-    <t>Doc File</t>
-  </si>
-  <si>
-    <t>Approach to Financial Ratios</t>
-  </si>
-  <si>
-    <t>legal notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	High Court</t>
-  </si>
-  <si>
-    <t>Kolhapur</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>jay@itc.com</t>
-  </si>
-  <si>
-    <t>Automate Test Test</t>
-  </si>
-  <si>
-    <t>abcde@itc.com</t>
-  </si>
-  <si>
-    <t>jai@gmail.com</t>
-  </si>
-  <si>
-    <t>Mr.Chavan</t>
-  </si>
-  <si>
-    <t>Income Tax</t>
-  </si>
-  <si>
-    <t>https://login.teamleaseregtech.com/Login.aspx</t>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>yadav</t>
+  </si>
+  <si>
+    <t>Dehli</t>
+  </si>
+  <si>
+    <t>EditLegalEntity</t>
+  </si>
+  <si>
+    <t>EditLawFirm</t>
+  </si>
+  <si>
+    <t>Edit Opponenet Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internet Banking</t>
+  </si>
+  <si>
+    <t>Banking Cards.</t>
+  </si>
+  <si>
+    <t>Automate Test New</t>
+  </si>
+  <si>
+    <t>Financial Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamilnadu High Court </t>
+  </si>
+  <si>
+    <t>Telanagna HIGH COURT</t>
+  </si>
+  <si>
+    <t>Satara</t>
+  </si>
+  <si>
+    <t>Sayali</t>
+  </si>
+  <si>
+    <t>sayali@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D Pvt Ltd</t>
+  </si>
+  <si>
+    <t>D Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Teju</t>
+  </si>
+  <si>
+    <t>teju@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr.Oberoy</t>
+  </si>
+  <si>
+    <t>Mr.Sawant</t>
+  </si>
+  <si>
+    <t>Public notice.</t>
+  </si>
+  <si>
+    <t>Judicial notice</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Notice of intention</t>
+  </si>
+  <si>
+    <t>Statement of estimated costs</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XHTML</t>
+  </si>
+  <si>
+    <t>Case filing</t>
+  </si>
+  <si>
+    <t>Judgement and decree</t>
+  </si>
+  <si>
+    <t>Y Pvt Ltd</t>
+  </si>
+  <si>
+    <t>ABCDY@itc.com</t>
+  </si>
+  <si>
+    <t>cfo@bitaconsulting.co.in</t>
+  </si>
+  <si>
+    <t>o8K!^&amp;PmkO$z</t>
+  </si>
+  <si>
+    <t>Ref No *</t>
+  </si>
+  <si>
+    <t>Ref no7869</t>
+  </si>
+  <si>
+    <t>Opponent *</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1212,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1202,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:XFD54"/>
     </sheetView>
   </sheetViews>
@@ -2110,16 +2171,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="1023" width="11.5546875"/>
   </cols>
   <sheetData>
@@ -2127,8 +2188,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>185</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2162,7 +2223,7 @@
         <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2170,7 +2231,7 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2178,7 +2239,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2186,11 +2247,16 @@
         <v>131</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="15"/>
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="16" spans="1:2" s="16" customFormat="1">
       <c r="A16" s="18" t="s">
@@ -2203,7 +2269,7 @@
         <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2211,7 +2277,7 @@
         <v>131</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2227,7 +2293,7 @@
         <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2246,6 +2312,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>168</v>
@@ -2256,7 +2330,7 @@
         <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2264,7 +2338,7 @@
         <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2280,7 +2354,7 @@
         <v>131</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2288,7 +2362,15 @@
         <v>147</v>
       </c>
       <c r="B29">
-        <v>6543234594</v>
+        <v>9943234594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="16" customFormat="1">
@@ -2301,7 +2383,15 @@
         <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="16" customFormat="1">
@@ -2314,7 +2404,15 @@
         <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="16" customFormat="1">
@@ -2327,7 +2425,15 @@
         <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="16" customFormat="1">
@@ -2340,7 +2446,15 @@
         <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="16" customFormat="1">
@@ -2353,7 +2467,15 @@
         <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="16" customFormat="1">
@@ -2366,7 +2488,15 @@
         <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="16" customFormat="1">
@@ -2379,7 +2509,15 @@
         <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="18" customFormat="1">
@@ -2392,7 +2530,15 @@
         <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="18" customFormat="1">
@@ -2405,7 +2551,15 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2569,7 @@
     <hyperlink ref="B14" r:id="rId3" xr:uid="{14D7A191-A921-482C-BC45-AD160CC1BABE}"/>
     <hyperlink ref="B18" r:id="rId4" xr:uid="{687081DC-AF3B-442D-98F3-593F00E7E410}"/>
     <hyperlink ref="B28" r:id="rId5" xr:uid="{860EF50E-A108-4410-BDBB-B038861632B7}"/>
-    <hyperlink ref="B1" r:id="rId6" xr:uid="{2174C34D-3FAA-4FAD-890B-F08D4F3845C6}"/>
+    <hyperlink ref="B39" r:id="rId6" display="ABCD@itc.com" xr:uid="{B0F41859-D600-4926-93BC-907215950128}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -2431,7 +2585,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2834,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3318,4 +3472,103 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{1C483EE2-0BC3-44B4-BF5F-61989A96955B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{20E94110-131D-4B6E-896A-9FAD2D97B338}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB1D83-FE88-4A79-90AE-2AFE2B83C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF49571-329A-4054-92EA-3A412A310D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="211">
   <si>
     <t>URL</t>
   </si>
@@ -659,6 +659,21 @@
   </si>
   <si>
     <t>Opponent *</t>
+  </si>
+  <si>
+    <t>aayush tripathi</t>
+  </si>
+  <si>
+    <t>New Task 5877</t>
+  </si>
+  <si>
+    <t>RefNo-1246</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Finance Executive</t>
   </si>
 </sst>
 </file>
@@ -2584,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2988,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3396,7 +3411,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3476,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3564,11 +3579,346 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1">
+      <c r="A33" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>75000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58">
+        <v>4567</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{1C483EE2-0BC3-44B4-BF5F-61989A96955B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{20E94110-131D-4B6E-896A-9FAD2D97B338}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF49571-329A-4054-92EA-3A412A310D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217CCCC9-E3D3-40EC-84E2-4A25B63EECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="215">
   <si>
     <t>URL</t>
   </si>
@@ -664,16 +664,28 @@
     <t>aayush tripathi</t>
   </si>
   <si>
-    <t>New Task 5877</t>
-  </si>
-  <si>
-    <t>RefNo-1246</t>
-  </si>
-  <si>
     <t>Case</t>
   </si>
   <si>
     <t>Finance Executive</t>
+  </si>
+  <si>
+    <t>Automation Test 4jan 2023</t>
+  </si>
+  <si>
+    <t>Case No 2702309</t>
+  </si>
+  <si>
+    <t>New Task 508779</t>
+  </si>
+  <si>
+    <t>RefNo-1246709</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>Task as on 5 jan 2023</t>
   </si>
 </sst>
 </file>
@@ -3491,10 +3503,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3592,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3644,112 +3656,112 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="12"/>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="9" customFormat="1">
-      <c r="A33" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
+    <row r="34" spans="1:4" s="9" customFormat="1">
+      <c r="A34" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -3760,10 +3772,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -3774,142 +3786,156 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40">
-        <v>75000</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>75000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>210</v>
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B48" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="9" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="9" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53">
-        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>89</v>
       </c>
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="9" t="s">
+      <c r="B55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>101</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>4567</v>
       </c>
     </row>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217CCCC9-E3D3-40EC-84E2-4A25B63EECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB514F68-8ED6-469E-9CAF-7005B6280044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="217">
   <si>
     <t>URL</t>
   </si>
@@ -670,15 +670,9 @@
     <t>Finance Executive</t>
   </si>
   <si>
-    <t>Automation Test 4jan 2023</t>
-  </si>
-  <si>
     <t>Case No 2702309</t>
   </si>
   <si>
-    <t>New Task 508779</t>
-  </si>
-  <si>
     <t>RefNo-1246709</t>
   </si>
   <si>
@@ -686,6 +680,18 @@
   </si>
   <si>
     <t>Task as on 5 jan 2023</t>
+  </si>
+  <si>
+    <t>New Task 5jan 2023</t>
+  </si>
+  <si>
+    <t>Automation Test 5jan 2023</t>
+  </si>
+  <si>
+    <t>Deepali Dev</t>
+  </si>
+  <si>
+    <t>Case No09375</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2207,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3016,7 +3022,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD54"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3503,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3604,7 +3610,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3645,7 +3651,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3661,13 +3667,13 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3691,7 +3697,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3724,7 +3730,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -3761,7 +3767,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -3915,7 +3921,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3923,7 +3929,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3937,14 +3943,65 @@
       </c>
       <c r="B59">
         <v>4567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="9" customFormat="1" ht="15.6">
+      <c r="A62" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="16" customFormat="1">
+      <c r="A63" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{1C483EE2-0BC3-44B4-BF5F-61989A96955B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{20E94110-131D-4B6E-896A-9FAD2D97B338}"/>
+    <hyperlink ref="B67" r:id="rId3" xr:uid="{FD0B497F-56B0-4A35-8A15-B5BD36C9962B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB514F68-8ED6-469E-9CAF-7005B6280044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63791E8-FB7D-4D6D-9345-EBA68C8CF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="245">
   <si>
     <t>URL</t>
   </si>
@@ -679,19 +671,103 @@
     <t>edit</t>
   </si>
   <si>
-    <t>Task as on 5 jan 2023</t>
-  </si>
-  <si>
-    <t>New Task 5jan 2023</t>
-  </si>
-  <si>
-    <t>Automation Test 5jan 2023</t>
-  </si>
-  <si>
     <t>Deepali Dev</t>
   </si>
   <si>
     <t>Case No09375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Task 15jan </t>
+  </si>
+  <si>
+    <t>New Expected Outcome 15</t>
+  </si>
+  <si>
+    <t>New Task 15jan2023</t>
+  </si>
+  <si>
+    <t>Task as on 15012023</t>
+  </si>
+  <si>
+    <t>Order 17jan23</t>
+  </si>
+  <si>
+    <t>Edit Opponent Name</t>
+  </si>
+  <si>
+    <t>H Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Amol</t>
+  </si>
+  <si>
+    <t>amol@itc.com</t>
+  </si>
+  <si>
+    <t>S Pvt Ltd</t>
+  </si>
+  <si>
+    <t>C Pvt Ltd</t>
+  </si>
+  <si>
+    <t>ab@gmail.com</t>
+  </si>
+  <si>
+    <t>Shreya</t>
+  </si>
+  <si>
+    <t>J Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Mr.Dikshit</t>
+  </si>
+  <si>
+    <t>Mr.Sachan</t>
+  </si>
+  <si>
+    <t>High Court of Gujarat</t>
+  </si>
+  <si>
+    <t>High Court of Panjab</t>
+  </si>
+  <si>
+    <t>Implied Notice</t>
+  </si>
+  <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>AEPS</t>
+  </si>
+  <si>
+    <t>Automate Test New One</t>
+  </si>
+  <si>
+    <t>Institution of suit.</t>
+  </si>
+  <si>
+    <t>Framing of Issues.</t>
+  </si>
+  <si>
+    <t>XHTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTML</t>
+  </si>
+  <si>
+    <t>Financial Ratio New</t>
+  </si>
+  <si>
+    <t>Graphic rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Notice of intention </t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>komal@itc.com</t>
   </si>
 </sst>
 </file>
@@ -2206,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3022,7 +3098,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3509,10 +3585,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3610,7 +3686,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3621,7 +3697,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3632,7 +3708,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3651,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3667,7 +3743,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -3730,7 +3806,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -3921,7 +3997,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>102</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3929,7 +4005,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3960,7 +4036,7 @@
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3968,7 +4044,7 @@
         <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3976,7 +4052,7 @@
         <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3984,7 +4060,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3992,7 +4068,317 @@
         <v>172</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>184</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="16" customFormat="1">
+      <c r="A71" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>8796543294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A80" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85">
+        <v>9943234594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="16" customFormat="1">
+      <c r="A88" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="16" customFormat="1">
+      <c r="A93" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="16" customFormat="1">
+      <c r="A98" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" s="15"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" s="15"/>
+    </row>
+    <row r="103" spans="1:2" s="16" customFormat="1">
+      <c r="A103" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="16" customFormat="1">
+      <c r="A108" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="16" customFormat="1">
+      <c r="A113" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="16" customFormat="1">
+      <c r="A118" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="18" customFormat="1">
+      <c r="A123" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="18" customFormat="1">
+      <c r="A128" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4000,8 +4386,11 @@
     <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{1C483EE2-0BC3-44B4-BF5F-61989A96955B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{20E94110-131D-4B6E-896A-9FAD2D97B338}"/>
     <hyperlink ref="B67" r:id="rId3" xr:uid="{FD0B497F-56B0-4A35-8A15-B5BD36C9962B}"/>
+    <hyperlink ref="B73" r:id="rId4" xr:uid="{2059D86D-C042-4175-BAC8-3B9C0EBADE99}"/>
+    <hyperlink ref="B84" r:id="rId5" xr:uid="{5AE42020-86AD-422A-9FA2-D451A3CC4D6D}"/>
+    <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com" xr:uid="{5DF98E99-1E86-4022-ACA2-6ED88F1426C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63791E8-FB7D-4D6D-9345-EBA68C8CF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C413C7-AAD9-4DD9-A5F1-CA9102C5B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,10 +764,10 @@
     <t xml:space="preserve">New Notice of intention </t>
   </si>
   <si>
-    <t>Komal</t>
-  </si>
-  <si>
-    <t>komal@itc.com</t>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Vijay@itc.com</t>
   </si>
 </sst>
 </file>
@@ -3587,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C413C7-AAD9-4DD9-A5F1-CA9102C5B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D147F-F87B-483A-8FAE-2570CEC856F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,9 +689,6 @@
     <t>Task as on 15012023</t>
   </si>
   <si>
-    <t>Order 17jan23</t>
-  </si>
-  <si>
     <t>Edit Opponent Name</t>
   </si>
   <si>
@@ -764,10 +761,13 @@
     <t xml:space="preserve">New Notice of intention </t>
   </si>
   <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>Vijay@itc.com</t>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>komal@itc.com</t>
+  </si>
+  <si>
+    <t>Order 25jan23</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3587,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3939,7 +3939,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3984,7 +3984,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>780</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>172</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4082,7 +4082,7 @@
         <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -4143,7 +4143,7 @@
         <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>131</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4196,15 +4196,15 @@
         <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -4217,7 +4217,7 @@
         <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -4238,7 +4238,7 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -4294,7 +4294,7 @@
         <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -4307,7 +4307,7 @@
         <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4315,7 +4315,7 @@
         <v>162</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -4328,7 +4328,7 @@
         <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -4349,7 +4349,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -4370,7 +4370,7 @@
         <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:2">

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D147F-F87B-483A-8FAE-2570CEC856F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63791E8-FB7D-4D6D-9345-EBA68C8CF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,6 +689,9 @@
     <t>Task as on 15012023</t>
   </si>
   <si>
+    <t>Order 17jan23</t>
+  </si>
+  <si>
     <t>Edit Opponent Name</t>
   </si>
   <si>
@@ -765,9 +768,6 @@
   </si>
   <si>
     <t>komal@itc.com</t>
-  </si>
-  <si>
-    <t>Order 25jan23</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3587,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3939,7 +3939,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3984,7 +3984,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>7480</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>172</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4082,7 +4082,7 @@
         <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -4143,7 +4143,7 @@
         <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>131</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4196,15 +4196,15 @@
         <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -4217,7 +4217,7 @@
         <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -4238,7 +4238,7 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -4294,7 +4294,7 @@
         <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -4307,7 +4307,7 @@
         <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4315,7 +4315,7 @@
         <v>162</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -4328,7 +4328,7 @@
         <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -4349,7 +4349,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -4370,7 +4370,7 @@
         <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:2">

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63791E8-FB7D-4D6D-9345-EBA68C8CF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF133E3A-558B-4834-8CE5-9E6FEFA6E4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Case Open - CompanyAdmin" sheetId="7" r:id="rId7"/>
     <sheet name="Task Open - CompanyAdmin" sheetId="8" r:id="rId8"/>
     <sheet name="CFO" sheetId="9" r:id="rId9"/>
+    <sheet name="ExternalLawyer" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="250">
   <si>
     <t>URL</t>
   </si>
@@ -689,9 +690,6 @@
     <t>Task as on 15012023</t>
   </si>
   <si>
-    <t>Order 17jan23</t>
-  </si>
-  <si>
     <t>Edit Opponent Name</t>
   </si>
   <si>
@@ -768,6 +766,24 @@
   </si>
   <si>
     <t>komal@itc.com</t>
+  </si>
+  <si>
+    <t>Order 25jan23</t>
+  </si>
+  <si>
+    <t>CBI</t>
+  </si>
+  <si>
+    <t>lawyer123@avantis.info</t>
+  </si>
+  <si>
+    <t>No 23202</t>
+  </si>
+  <si>
+    <t>Case No093756723</t>
+  </si>
+  <si>
+    <t>Ref-3453</t>
   </si>
 </sst>
 </file>
@@ -1368,12 +1384,751 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBB0F7-12CA-4928-9CA8-B80D156AD083}">
+  <dimension ref="A1:D97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>75000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="8">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{32609F3B-4E12-4FDA-934E-3735B8652D3A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{7A5774E0-DEBC-4CC9-8098-B1F299DF5F10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1777,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1889,7 +2644,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2282,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2693,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD47"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3097,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3587,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3939,7 +4694,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3984,7 +4739,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3997,7 +4752,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>780</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4005,7 +4760,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4036,7 +4791,7 @@
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4052,7 +4807,7 @@
         <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4060,7 +4815,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4068,7 +4823,7 @@
         <v>172</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4082,7 +4837,7 @@
         <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4090,7 +4845,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4106,7 +4861,7 @@
         <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4130,7 +4885,7 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -4143,7 +4898,7 @@
         <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4167,7 +4922,7 @@
         <v>131</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4196,15 +4951,15 @@
         <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -4217,7 +4972,7 @@
         <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4225,7 +4980,7 @@
         <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -4238,7 +4993,7 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4265,7 +5020,7 @@
         <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4273,7 +5028,7 @@
         <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -4294,7 +5049,7 @@
         <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -4307,7 +5062,7 @@
         <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4315,7 +5070,7 @@
         <v>162</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -4328,7 +5083,7 @@
         <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4336,7 +5091,7 @@
         <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -4349,7 +5104,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4357,7 +5112,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -4370,7 +5125,7 @@
         <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:2">

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63791E8-FB7D-4D6D-9345-EBA68C8CF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF655208-9998-41A4-ABE9-452A75A4D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Case Open - CompanyAdmin" sheetId="7" r:id="rId7"/>
     <sheet name="Task Open - CompanyAdmin" sheetId="8" r:id="rId8"/>
     <sheet name="CFO" sheetId="9" r:id="rId9"/>
+    <sheet name="ExternalLawyer" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="255">
   <si>
     <t>URL</t>
   </si>
@@ -689,9 +690,6 @@
     <t>Task as on 15012023</t>
   </si>
   <si>
-    <t>Order 17jan23</t>
-  </si>
-  <si>
     <t>Edit Opponent Name</t>
   </si>
   <si>
@@ -768,6 +766,39 @@
   </si>
   <si>
     <t>komal@itc.com</t>
+  </si>
+  <si>
+    <t>Order 25jan23</t>
+  </si>
+  <si>
+    <t>CBI</t>
+  </si>
+  <si>
+    <t>lawyer123@avantis.info</t>
+  </si>
+  <si>
+    <t>Case No3237</t>
+  </si>
+  <si>
+    <t>Ref-34353</t>
+  </si>
+  <si>
+    <t>No 22220</t>
+  </si>
+  <si>
+    <t>New Task 098</t>
+  </si>
+  <si>
+    <t>New Task 5285 Description</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 551</t>
+  </si>
+  <si>
+    <t>order as on date 2feb2023</t>
+  </si>
+  <si>
+    <t>Automate Test Neww</t>
   </si>
 </sst>
 </file>
@@ -1368,12 +1399,751 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBB0F7-12CA-4928-9CA8-B80D156AD083}">
+  <dimension ref="A1:D97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>75000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="8">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{32609F3B-4E12-4FDA-934E-3735B8652D3A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{7A5774E0-DEBC-4CC9-8098-B1F299DF5F10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1777,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1889,7 +2659,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2282,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2693,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD47"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3097,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3587,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3939,7 +4709,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3984,7 +4754,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3997,7 +4767,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>780</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4005,7 +4775,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4036,7 +4806,7 @@
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4052,7 +4822,7 @@
         <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4060,7 +4830,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4068,7 +4838,7 @@
         <v>172</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4082,7 +4852,7 @@
         <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4090,7 +4860,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4106,7 +4876,7 @@
         <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4130,7 +4900,7 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -4143,7 +4913,7 @@
         <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4167,7 +4937,7 @@
         <v>131</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4196,15 +4966,15 @@
         <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -4217,7 +4987,7 @@
         <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4225,7 +4995,7 @@
         <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -4238,7 +5008,7 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4265,7 +5035,7 @@
         <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4273,7 +5043,7 @@
         <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -4294,7 +5064,7 @@
         <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -4307,7 +5077,7 @@
         <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4315,7 +5085,7 @@
         <v>162</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -4328,7 +5098,7 @@
         <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4336,7 +5106,7 @@
         <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -4349,7 +5119,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4357,7 +5127,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -4370,7 +5140,7 @@
         <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:2">
